--- a/Data/Output/RO094782_2021/Yearly-Report-2021-RO094782.xlsx
+++ b/Data/Output/RO094782_2021/Yearly-Report-2021-RO094782.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,274 +37,316 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>158574</x:t>
+    <x:t>292939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48926.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>645056</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
-    <x:t>256452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51290.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>307742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>591882</x:t>
+    <x:t>24988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4997.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29985.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38375.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>611698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12844.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77065.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24131.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28861.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>808302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2616.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15697.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54819.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>328918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>988910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169977</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33995.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>839295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3121.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391382</x:t>
   </x:si>
   <x:si>
     <x:t>Various paper supplies</x:t>
   </x:si>
   <x:si>
-    <x:t>277495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>854654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13537.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81223.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>484995</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53585.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>321511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25703.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17405.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104435</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7233.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43400.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>977545</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57922.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>347537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>340609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10431.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62587.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>689921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9989.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59936.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>781661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13942.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83656.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>815742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41467.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>248804</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>445194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8490.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50944.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>579873</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36920.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>221521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>604007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12693</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2538.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15231.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53401.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-28</x:t>
+    <x:t>29452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5890.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35342.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>855272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>817372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>697989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>314065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>309276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>566261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42971.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>656060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24142.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-02</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -655,7 +697,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G17"/>
+  <x:dimension ref="A1:G20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -735,76 +777,76 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>40</x:v>
@@ -816,125 +858,125 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
@@ -954,7 +996,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>75</x:v>
@@ -965,7 +1007,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>77</x:v>
@@ -977,79 +1019,148 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
+      <x:c r="F15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="s">
+      <x:c r="F16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="E17" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
+      <x:c r="F17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
         <x:v>96</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>110</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
